--- a/regions/5/dasaqmeba_umushevroba/dasaqmeba_umushevroba.xlsx
+++ b/regions/5/dasaqmeba_umushevroba/dasaqmeba_umushevroba.xlsx
@@ -4,41 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="სამცხე-ჯავახეთი" sheetId="2" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="9"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>წყარო:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  2016 წლის ჩათვლით შინამეურნეობების ინტეგრირებული გამოკვლევა, 2017 წლიდან -  სამუშაო ძალის გამოკვლევა. </t>
-    </r>
-  </si>
-  <si>
-    <t>*2010-2019 წლების მონაცემები გადაანგარიშებულია შრომის საერთაშორისო  ორგანიზაციის (შსო) მიერ შრომის სტატისტიკოსთა  მე-20 საერთაშორისო კონფერენციაზე მიღებული სტანდარტების მიხედვით;
-2003-2009 წლების მონაცემები შეესაბამება შრომის სტატისტიკოსთა  მე-13 საერთაშორისო კონფერენციაზე მიღებულ სტანდარტებს.</t>
-  </si>
   <si>
     <t>მოსახლეობა სამუშაო ძალის გარეთ</t>
   </si>
@@ -68,12 +44,6 @@
   </si>
   <si>
     <t>დასაქმება, უმუშევრობა</t>
-  </si>
-  <si>
-    <t>**2003-2016 წლებში  სამცხე-ჯავახეთის, გურიისა და მცხეთა-მთიანეთის რეგიონები არის გაერთიანებული, 2017 წლიდან მონაცემები მოიცავს მხოლოდ სამცხე-ჯავახეთის რეგიონს.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> სამცხე-ჯავახეთის რეგიონში**</t>
   </si>
   <si>
     <t>სამუშაო ძალის ინდიკატორები*</t>
@@ -120,6 +90,36 @@
       <t xml:space="preserve"> პროცენტი</t>
     </r>
   </si>
+  <si>
+    <t>*2010-2019 წლების მონაცემები გადაანგარიშებულია შრომის საერთაშორისო  ორგანიზაციის (შსო) მიერ შრომის სტატისტიკოსთა მე-19 და მე-20 საერთაშორისო კონფერენციებზე მიღებული სტანდარტების მიხედვით.
+2003-2009 წლების მონაცემები შეესაბამება შრომის სტატისტიკოსთა მე-13 საერთაშორისო კონფერენციაზე მიღებულ სტანდარტებს.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>წყარო:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2016 წლის ჩათვლით შინამეურნეობების ინტეგრირებული გამოკვლევა, 2017 წლიდან  -  სამუშაო ძალის გამოკვლევა. </t>
+    </r>
+  </si>
+  <si>
+    <t>**2003-2016 წლებში  სამცხე-ჯავახეთის, გურიისა და მცხეთა-მთიანეთის რეგიონები არის გაერთიანებული, 2017 წლიდან მონაცემები მოიცავს მხოლოდ სამცხე-ჯავახეთის რეგიონს.</t>
+  </si>
+  <si>
+    <t>სამცხე-ჯავახეთის რეგიონში**</t>
+  </si>
 </sst>
 </file>
 
@@ -128,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +244,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -283,15 +296,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -378,19 +392,54 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="6"/>
     <cellStyle name="Normal_Sheet2" xfId="4"/>
     <cellStyle name="Normal_Sheet3" xfId="3"/>
     <cellStyle name="Normal_Sheet5" xfId="5"/>
@@ -696,21 +745,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
     <col min="2" max="16" width="8.7109375" style="1" customWidth="1"/>
-    <col min="17" max="20" width="8.7109375" customWidth="1"/>
+    <col min="17" max="21" width="8.7109375" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
       <c r="A1" s="35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -751,56 +803,56 @@
       <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:23" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3"/>
+      <c r="A3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
       <c r="V3"/>
       <c r="W3"/>
     </row>
     <row r="4" spans="1:23" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4"/>
+      <c r="A4" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
       <c r="V4"/>
       <c r="W4"/>
     </row>
@@ -821,8 +873,10 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="5"/>
-      <c r="T5" s="5" t="s">
-        <v>10</v>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:23" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -884,10 +938,16 @@
       <c r="T6" s="33">
         <v>2021</v>
       </c>
+      <c r="U6" s="33">
+        <v>2022</v>
+      </c>
+      <c r="V6" s="33">
+        <v>2023</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="20">
         <v>334.23401484688731</v>
@@ -946,10 +1006,16 @@
       <c r="T7" s="20">
         <v>129.3659936308822</v>
       </c>
+      <c r="U7" s="36">
+        <v>127.00181262707541</v>
+      </c>
+      <c r="V7" s="50">
+        <v>123.98738598550447</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="22">
         <v>248.49459169805613</v>
@@ -1008,10 +1074,16 @@
       <c r="T8" s="22">
         <v>66.935034038900866</v>
       </c>
+      <c r="U8" s="36">
+        <v>67.503159474290669</v>
+      </c>
+      <c r="V8" s="50">
+        <v>70.024828437208484</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="22">
         <v>229.8250303038414</v>
@@ -1070,10 +1142,16 @@
       <c r="T9" s="22">
         <v>56.948412374445603</v>
       </c>
+      <c r="U9" s="36">
+        <v>58.958232521348073</v>
+      </c>
+      <c r="V9" s="50">
+        <v>62.167966872976429</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" s="22">
         <v>59.419853462979987</v>
@@ -1097,34 +1175,34 @@
         <v>45.329618346799712</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R10" s="22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S10" s="22">
         <v>26.753088095348293</v>
@@ -1132,10 +1210,16 @@
       <c r="T10" s="22">
         <v>30.006213457987148</v>
       </c>
+      <c r="U10" s="36">
+        <v>27.700099761441574</v>
+      </c>
+      <c r="V10" s="50">
+        <v>27.585511050593709</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="22">
         <v>170.33057451814182</v>
@@ -1159,34 +1243,34 @@
         <v>159.44763983254563</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S11" s="22">
         <v>36.806206132596067</v>
@@ -1194,10 +1278,16 @@
       <c r="T11" s="22">
         <v>26.884507668383467</v>
       </c>
+      <c r="U11" s="36">
+        <v>31.151367978919893</v>
+      </c>
+      <c r="V11" s="50">
+        <v>34.528094514323953</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="22">
         <v>7.46023227197634E-2</v>
@@ -1221,34 +1311,34 @@
         <v>6.3220438430227635E-2</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S12" s="22">
         <v>0</v>
@@ -1256,10 +1346,16 @@
       <c r="T12" s="22">
         <v>5.7691248074982708E-2</v>
       </c>
+      <c r="U12" s="36">
+        <v>0.1067647809869485</v>
+      </c>
+      <c r="V12" s="50">
+        <v>5.4361308058654502E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="22">
         <v>18.669561394214625</v>
@@ -1318,10 +1414,16 @@
       <c r="T13" s="22">
         <v>9.9866216644552726</v>
       </c>
+      <c r="U13" s="36">
+        <v>8.5449269529426566</v>
+      </c>
+      <c r="V13" s="50">
+        <v>7.8568615642320365</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" s="22">
         <v>85.739423148829957</v>
@@ -1380,10 +1482,16 @@
       <c r="T14" s="22">
         <v>62.430959591981321</v>
       </c>
+      <c r="U14" s="36">
+        <v>59.498653152784129</v>
+      </c>
+      <c r="V14" s="50">
+        <v>53.962557548296708</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1">
       <c r="A15" s="17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" s="25">
         <v>7.5130654822861773</v>
@@ -1442,10 +1550,16 @@
       <c r="T15" s="25">
         <v>14.919872392462391</v>
       </c>
+      <c r="U15" s="37">
+        <v>12.658558531911513</v>
+      </c>
+      <c r="V15" s="51">
+        <v>11.220108266709019</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1">
       <c r="A16" s="18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B16" s="25">
         <v>74.347487287280316</v>
@@ -1504,10 +1618,16 @@
       <c r="T16" s="25">
         <v>51.740826286918548</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="15" customHeight="1" thickBot="1">
+      <c r="U16" s="37">
+        <v>53.151335463616626</v>
+      </c>
+      <c r="V16" s="51">
+        <v>56.477381050194232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B17" s="28">
         <v>68.761711882952525</v>
@@ -1566,8 +1686,14 @@
       <c r="T17" s="28">
         <v>44.021161030104679</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1">
+      <c r="U17" s="38">
+        <v>46.423142553462121</v>
+      </c>
+      <c r="V17" s="52">
+        <v>50.140557750160617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="3"/>
       <c r="L18"/>
@@ -1583,85 +1709,92 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="30" customHeight="1">
-      <c r="A19" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1">
-      <c r="A20" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="1"/>
+    <row r="19" spans="1:26" s="41" customFormat="1" ht="90" customHeight="1">
+      <c r="A19" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="39"/>
+      <c r="Z19" s="42"/>
+    </row>
+    <row r="20" spans="1:26" ht="45" customHeight="1">
+      <c r="A20" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1">
-      <c r="A21" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-    </row>
-    <row r="22" spans="1:23" ht="15" customHeight="1">
+    <row r="21" spans="1:26" s="48" customFormat="1" ht="45" customHeight="1">
+      <c r="A21" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="46"/>
+      <c r="Z21"/>
+    </row>
+    <row r="22" spans="1:26" ht="15" customHeight="1">
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1670,7 +1803,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1">
+    <row r="23" spans="1:26" ht="15" customHeight="1">
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1679,7 +1812,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1">
+    <row r="24" spans="1:26" ht="15" customHeight="1">
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1688,7 +1821,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:26">
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
@@ -1700,7 +1833,7 @@
       <c r="O29"/>
       <c r="P29"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:26">
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
@@ -1713,13 +1846,6 @@
       <c r="P30"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A19:T19"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A21:T21"/>
-  </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.43307086614173229" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
